--- a/plantillas/plantillafrm.xlsx
+++ b/plantillas/plantillafrm.xlsx
@@ -469,7 +469,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
-      <formula1>"Censo,Tala"</formula1>
+      <formula1>"Censo,Corta"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
